--- a/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.3/Reports/RISC-V_ISA_Formal/Bug_Report-v1_8_3.xlsx
+++ b/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.3/Reports/RISC-V_ISA_Formal/Bug_Report-v1_8_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/CV32E40P/Documents partages/General/Technical/20240429-v1_8_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\core-v-docs\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.3\Reports\RISC-V_ISA_Formal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1501" documentId="6_{FA96F8BD-36C4-4082-B437-5B8EB098390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5C89F8A-75CD-426B-8F3C-386713F67010}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2FF88-C3CF-4D68-8BAD-8418B3BE7836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="3" r:id="rId1"/>
@@ -1268,7 +1268,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1547,7 +1547,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2164,9 +2163,9 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2189,26 +2188,14 @@
     <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="85" t="s">
         <v>204</v>
       </c>
@@ -2225,20 +2212,8 @@
       <c r="I2" s="89"/>
       <c r="J2" s="90"/>
       <c r="K2"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="86"/>
       <c r="C3" s="88"/>
       <c r="D3" s="69" t="s">
@@ -2263,20 +2238,8 @@
         <v>213</v>
       </c>
       <c r="K3"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="73" t="s">
         <v>248</v>
       </c>
@@ -2305,20 +2268,8 @@
         <v>1</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="73" t="s">
         <v>249</v>
       </c>
@@ -2347,20 +2298,8 @@
         <v>1</v>
       </c>
       <c r="K5"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="73" t="s">
         <v>250</v>
       </c>
@@ -2389,20 +2328,8 @@
         <v>1</v>
       </c>
       <c r="K6"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="72" t="s">
         <v>251</v>
       </c>
@@ -2431,20 +2358,8 @@
         <v>1</v>
       </c>
       <c r="K7"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="72" t="s">
         <v>252</v>
@@ -2474,20 +2389,8 @@
         <v>1</v>
       </c>
       <c r="K8"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="72" t="s">
         <v>253</v>
@@ -2517,20 +2420,8 @@
         <v>1</v>
       </c>
       <c r="K9"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" s="72" t="s">
         <v>254</v>
@@ -2560,20 +2451,8 @@
         <v>1</v>
       </c>
       <c r="K10"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
       <c r="B11" s="72" t="s">
         <v>255</v>
@@ -2603,20 +2482,8 @@
         <v>1</v>
       </c>
       <c r="K11"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="72" t="s">
         <v>257</v>
@@ -2646,20 +2513,8 @@
         <v>1</v>
       </c>
       <c r="K12"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="72" t="s">
         <v>256</v>
@@ -2689,20 +2544,8 @@
         <v>1</v>
       </c>
       <c r="K13"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" s="72" t="s">
         <v>258</v>
@@ -2732,20 +2575,8 @@
         <v>1</v>
       </c>
       <c r="K14"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-    </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="79"/>
       <c r="B15" s="77" t="s">
         <v>260</v>
@@ -2775,20 +2606,8 @@
         <v>1</v>
       </c>
       <c r="K15"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="15"/>
@@ -2799,40 +2618,16 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="9"/>
       <c r="D17" s="15"/>
       <c r="E17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
       <c r="D18" s="15"/>
@@ -2843,20 +2638,8 @@
       <c r="I18" s="1"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
       <c r="D19" s="15"/>
@@ -2867,20 +2650,8 @@
       <c r="I19" s="1"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="15"/>
@@ -2891,20 +2662,8 @@
       <c r="I20" s="1"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="9"/>
       <c r="D21" s="15"/>
@@ -2915,20 +2674,8 @@
       <c r="I21" s="1"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="9"/>
       <c r="D22" s="15"/>
@@ -2939,20 +2686,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="9"/>
       <c r="D23" s="15"/>
@@ -2963,20 +2698,8 @@
       <c r="I23" s="1"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="9"/>
       <c r="D24" s="15"/>
@@ -2987,20 +2710,8 @@
       <c r="I24" s="1"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
@@ -3011,130 +2722,6 @@
       <c r="I25" s="1"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-    </row>
-    <row r="33" spans="12:24" x14ac:dyDescent="0.3">
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6443,7 +6030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AAA642-7E2C-4952-BD36-710BA2D62605}">
   <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -6952,6 +6539,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e9bd2bf1-7846-4e2d-8378-b8e51bfa2f3b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f54967b1-d0f9-4f87-a13c-19c8bfc78f2f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB9BBB00D9243A40A5E6D596FD39F525" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="1d48a384c0bc649d77863a1911cc29cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e9bd2bf1-7846-4e2d-8378-b8e51bfa2f3b" xmlns:ns3="f54967b1-d0f9-4f87-a13c-19c8bfc78f2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce955d4825cf1039774bb752a7ff2644" ns2:_="" ns3:_="">
     <xsd:import namespace="e9bd2bf1-7846-4e2d-8378-b8e51bfa2f3b"/>
@@ -7168,27 +6775,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70D8AA3-1AD7-4B85-AB8E-665F404DB77D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d077b0a3-2feb-4fda-bee6-278ca0f2333e"/>
+    <ds:schemaRef ds:uri="68cdd8f2-d237-4a37-9e49-701b46d4278e"/>
+    <ds:schemaRef ds:uri="77bb3344-0c24-40f7-8b48-7e0eff6a54e3"/>
+    <ds:schemaRef ds:uri="383a7eb6-b86a-4aa5-bf6d-f87928c2c61e"/>
+    <ds:schemaRef ds:uri="e9bd2bf1-7846-4e2d-8378-b8e51bfa2f3b"/>
+    <ds:schemaRef ds:uri="f54967b1-d0f9-4f87-a13c-19c8bfc78f2f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e9bd2bf1-7846-4e2d-8378-b8e51bfa2f3b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f54967b1-d0f9-4f87-a13c-19c8bfc78f2f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AC371B7-EF95-4EE5-BEFD-18CABCAB20A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8A1844-5498-43BD-AD5E-56EC62092ECB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7207,29 +6817,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AC371B7-EF95-4EE5-BEFD-18CABCAB20A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70D8AA3-1AD7-4B85-AB8E-665F404DB77D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d077b0a3-2feb-4fda-bee6-278ca0f2333e"/>
-    <ds:schemaRef ds:uri="68cdd8f2-d237-4a37-9e49-701b46d4278e"/>
-    <ds:schemaRef ds:uri="77bb3344-0c24-40f7-8b48-7e0eff6a54e3"/>
-    <ds:schemaRef ds:uri="383a7eb6-b86a-4aa5-bf6d-f87928c2c61e"/>
-    <ds:schemaRef ds:uri="e9bd2bf1-7846-4e2d-8378-b8e51bfa2f3b"/>
-    <ds:schemaRef ds:uri="f54967b1-d0f9-4f87-a13c-19c8bfc78f2f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9d258917-277f-42cd-a3cd-14c4e9ee58bc}" enabled="1" method="Standard" siteId="{38ae3bcd-9579-4fd4-adda-b42e1495d55a}" removed="0"/>
